--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_ETIQUETAS.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_ETIQUETAS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Documentacion\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Yasiel Final\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7605" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>Reglas de confidencialidad</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Escenario</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
   </si>
   <si>
     <t>Respuesta del sistema</t>
@@ -204,57 +201,33 @@
     <t>A</t>
   </si>
   <si>
-    <t>Clasificación: Uso interno de la Universidad La Salle</t>
-  </si>
-  <si>
     <t>Forma de distribución: PDF Digital</t>
   </si>
   <si>
     <t>Paulo Edu Huallanca Ponce</t>
   </si>
   <si>
-    <t>Descripcion de los casos de prueba para el requisito AUDATA_REQ_HTML_Leer_Etiquetas</t>
-  </si>
-  <si>
     <t>Fecha: 02/04/19</t>
   </si>
   <si>
     <t>SC AUDATA_REQ_HTML_Leer_Etiquetas</t>
   </si>
   <si>
-    <t>EC 1.1 Ingreso de un Archivo no HTML</t>
-  </si>
-  <si>
     <t>Archivo HTML</t>
   </si>
   <si>
-    <t>EC 1.2 Ingreso de un Archivo HTML</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cuando el usuario ingresa un archivo HTML que no contiene etiquetas a extraer. </t>
   </si>
   <si>
-    <t>Cuando el usuario no ingresa como entrada un archivo HTML para su lectura.</t>
-  </si>
-  <si>
     <t>Cuando el usuario ingresa como entrada un archivo HTML para su lectura.</t>
   </si>
   <si>
-    <t>El sistema debe mostrar un mensaje, diciendo:" No se encontraron etiquetas".</t>
-  </si>
-  <si>
     <t>Ingresar un archivo no HTML</t>
   </si>
   <si>
     <t>Ingresar un archivo HTML</t>
   </si>
   <si>
-    <t>EC 1.3 Archivo HTML no Contiene Etiquetas</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar un mensaje de alerta, diciendo: “Por favor ingrese un archivo HTML”.</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -264,7 +237,70 @@
     <t>El sistema debe mostrar una lista de las etiquetas extraidas del archivo HTML ingresado.</t>
   </si>
   <si>
-    <t>Título: Diseño de caso de prueba para el requerimiento AUDATA_REQ_HTML_Leer_Etiquetas</t>
+    <t>ArchivoMalo</t>
+  </si>
+  <si>
+    <t>Creación del documento</t>
+  </si>
+  <si>
+    <t>Descripción de los casos de prueba para el requisito AUDATA_REQ_HTML_Leer_Etiquetas</t>
+  </si>
+  <si>
+    <t>Título: Casos de Prueba para AUDATA_REQ_HTML_Leer_Etiquetas</t>
+  </si>
+  <si>
+    <t>EC 1.1 No ingresar ningún archivo</t>
+  </si>
+  <si>
+    <t>EC 1.2 Ingresar un Archivo HTML</t>
+  </si>
+  <si>
+    <t>EC 1.3 Ingresar un Archivo no HTML</t>
+  </si>
+  <si>
+    <t>Cuando el usuario ingresa como entrada un archivo no HTML para su lectura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el usuario no ingresa un archivo para su lectura. </t>
+  </si>
+  <si>
+    <t>ArchivoBueno</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el siguiente mensaje de error: "Ingrese un archivo con extensión HTML".</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el siguiente mensaje de alerta: "Ingrese un archivo HTML”.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el siguiente mensaje de alerta: "No se encontraron etiquetas".</t>
+  </si>
+  <si>
+    <t>No ingresar ningún archivo</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Tiene que ser un archivo con extension no .html (.pdf,.csv,etc).</t>
+  </si>
+  <si>
+    <t>Clasificación: Universidad La Salle</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>EC 1.4 Archivo HTML no Contiene Etiquetas</t>
+  </si>
+  <si>
+    <t>ListaEtiquetas</t>
+  </si>
+  <si>
+    <t>String[*]</t>
+  </si>
+  <si>
+    <t>Valor a retornar.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -575,58 +611,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF0000FF"/>
       </left>
       <right style="thin">
@@ -675,6 +659,98 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1620F2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1620F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1620F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1620F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF1620F2"/>
       </left>
       <right style="medium">
@@ -703,34 +779,10 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color rgb="FF1620F2"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF1620F2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000FF"/>
       </left>
       <right style="medium">
-        <color rgb="FF1620F2"/>
+        <color rgb="FF0000FF"/>
       </right>
       <top style="medium">
         <color rgb="FF1620F2"/>
@@ -769,32 +821,23 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -806,42 +849,51 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -855,13 +907,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -881,6 +933,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -911,29 +969,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,6 +993,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -962,8 +1019,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2241</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
@@ -1314,17 +1371,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1478,7 +1538,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
@@ -1528,7 +1588,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1537,11 +1597,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1564,7 +1624,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
@@ -1578,7 +1638,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -1605,32 +1665,32 @@
       <c r="A24" s="4"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="36"/>
+      <c r="B25" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="38"/>
       <c r="D25" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
@@ -1649,39 +1709,39 @@
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="36"/>
+      <c r="B27" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="38"/>
       <c r="D27" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="H27" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="36"/>
+      <c r="B28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="38"/>
       <c r="D28" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="45"/>
-      <c r="H28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="H28" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1735,11 +1795,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1749,11 +1809,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1775,11 +1835,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="B36" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1799,56 +1859,58 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="14">
-        <v>1</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="15">
+      <c r="B39" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="27">
         <v>43557</v>
       </c>
-      <c r="F39" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
+      <c r="F39" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1897,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M45"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1908,7 +1970,7 @@
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
@@ -1932,10 +1994,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1990,11 +2052,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2027,16 +2089,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2044,23 +2106,23 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2068,13 +2130,13 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2082,13 +2144,13 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2097,13 +2159,13 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2112,23 +2174,23 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="56" t="s">
+      <c r="B14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2137,13 +2199,13 @@
     </row>
     <row r="15" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="16"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2151,23 +2213,23 @@
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="16"/>
+      <c r="B16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2175,13 +2237,13 @@
     </row>
     <row r="17" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2189,27 +2251,37 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="B18" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2217,13 +2289,13 @@
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2231,13 +2303,13 @@
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2386,7 +2458,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2582,24 +2654,30 @@
       <c r="L45" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E10:E13"/>
+  <mergeCells count="23">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G13"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D10:D13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2612,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2630,68 +2708,88 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="66">
+        <v>2</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <v>3</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
